--- a/Fizyka/Fizyka/Lab 5 E8/Zeszyt1.xlsx
+++ b/Fizyka/Fizyka/Lab 5 E8/Zeszyt1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RedScorp\Desktop\Sprawozdania\Fizyka\Fizyka\Lab 5 E8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E9B32B-D491-48FA-A88C-6C53E2B27403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7456BE1-9643-487B-A03B-409238DAC9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21600" xr2:uid="{210A16B6-95A8-47BB-836B-DF3B83FFC102}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21600" xr2:uid="{210A16B6-95A8-47BB-836B-DF3B83FFC102}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Lp.</t>
   </si>
@@ -112,15 +112,6 @@
     <t>L0[mm]</t>
   </si>
   <si>
-    <t>Wzór</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pochodna wzg. L0 i R0  </t>
-  </si>
-  <si>
-    <t>Ub L0 i R0</t>
-  </si>
-  <si>
     <r>
       <t>(tg(</t>
     </r>
@@ -150,7 +141,36 @@
     <t>-tg(β)/l0^2</t>
   </si>
   <si>
-    <t>(tg)</t>
+    <t>-I*tg(α)</t>
+  </si>
+  <si>
+    <r>
+      <t>(tg(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)/R0)' = (tg(α)/(U/I))'</t>
+    </r>
+  </si>
+  <si>
+    <t>I*tg(α)/u^2</t>
   </si>
 </sst>
 </file>
@@ -158,9 +178,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -239,32 +259,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2482,10 +2501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEDC898-0FA1-4E4D-AAD0-2AE10EA03B5C}">
-  <dimension ref="B2:K53"/>
+  <dimension ref="B2:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="P58" sqref="P58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2495,6 +2514,8 @@
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
@@ -2583,7 +2604,7 @@
         <f t="shared" ref="H6:H14" si="0">C6/F6</f>
         <v>6.4516129032258069</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <f>D6/G6</f>
         <v>2</v>
       </c>
@@ -2616,7 +2637,7 @@
         <f t="shared" ref="J7:J14" si="1">D7/G7</f>
         <v>2.4</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <f t="shared" ref="K7:K14" si="2">H7/G7</f>
         <v>0.83333333333333337</v>
       </c>
@@ -2648,7 +2669,7 @@
         <f t="shared" si="1"/>
         <v>3.1</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <f t="shared" si="2"/>
         <v>0.70175438596491235</v>
       </c>
@@ -2676,11 +2697,11 @@
         <f t="shared" si="0"/>
         <v>7.3529411764705879</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
         <f t="shared" si="1"/>
         <v>3.7333333333333334</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <f t="shared" si="2"/>
         <v>0.49019607843137253</v>
       </c>
@@ -2712,7 +2733,7 @@
         <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <f t="shared" si="2"/>
         <v>0.38961038961038963</v>
       </c>
@@ -2740,11 +2761,11 @@
         <f t="shared" si="0"/>
         <v>8.1395348837209305</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="10">
         <f t="shared" si="1"/>
         <v>3.72</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <f t="shared" si="2"/>
         <v>0.32558139534883723</v>
       </c>
@@ -2772,11 +2793,11 @@
         <f t="shared" si="0"/>
         <v>8.6021505376344081</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="10">
         <f t="shared" si="1"/>
         <v>3.7666666666666666</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <f t="shared" si="2"/>
         <v>0.28673835125448027</v>
       </c>
@@ -2804,11 +2825,11 @@
         <f t="shared" si="0"/>
         <v>9.0909090909090917</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="10">
         <f t="shared" si="1"/>
         <v>3.9428571428571431</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="9">
         <f t="shared" si="2"/>
         <v>0.25974025974025977</v>
       </c>
@@ -2836,11 +2857,11 @@
         <f t="shared" si="0"/>
         <v>9.615384615384615</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="12">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <f t="shared" si="2"/>
         <v>0.24038461538461536</v>
       </c>
@@ -2849,11 +2870,11 @@
       <c r="I15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <f>AVERAGE(J6:J14)</f>
         <v>3.3625396825396825</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <f>AVERAGE(K7:K14)</f>
         <v>0.44091735113352509</v>
       </c>
@@ -2862,7 +2883,7 @@
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <f>J15/C2</f>
         <v>3.5771698750422156E-3</v>
       </c>
@@ -2871,65 +2892,75 @@
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <f>K15/H5</f>
         <v>7.9365123204034521E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D51" s="5" t="s">
-        <v>15</v>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="7">
+        <v>3.5771698750422156E-3</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>13</v>
       </c>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
-      <c r="H51" s="15" t="s">
+      <c r="H51" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I51" s="15"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="M51">
+        <f>-J15/C2^2</f>
+        <v>-3.8054998670661866E-6</v>
+      </c>
+      <c r="P51">
+        <f>SQRT((M51*(1/SQRT(3)))^2)</f>
+        <v>2.1971063726517482E-6</v>
+      </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C52" s="8">
-        <v>3.5771698750422156E-3</v>
-      </c>
-      <c r="E52" s="14" t="s">
+        <v>7.9365123204034521E-2</v>
+      </c>
+      <c r="E52" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="16" t="s">
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="13"/>
+      <c r="J52" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I52" s="14"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="9">
-        <v>7.9365123204034521E-2</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
+      <c r="K52" s="13"/>
+      <c r="M52">
+        <f>-F5*K15</f>
+        <v>-7.9365123204034507E-2</v>
+      </c>
+      <c r="N52">
+        <f>F5*K15/C5</f>
+        <v>7.9365123204034507E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
     <mergeCell ref="E51:G51"/>
     <mergeCell ref="H51:I51"/>
+    <mergeCell ref="E52:G52"/>
     <mergeCell ref="H52:I52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:I53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Fizyka/Fizyka/Lab 5 E8/Zeszyt1.xlsx
+++ b/Fizyka/Fizyka/Lab 5 E8/Zeszyt1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RedScorp\Desktop\Sprawozdania\Fizyka\Fizyka\Lab 5 E8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7456BE1-9643-487B-A03B-409238DAC9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3129A491-C080-498C-AE6B-818BAE858D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21600" xr2:uid="{210A16B6-95A8-47BB-836B-DF3B83FFC102}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Lp.</t>
   </si>
@@ -112,75 +112,39 @@
     <t>L0[mm]</t>
   </si>
   <si>
-    <r>
-      <t>(tg(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>β</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)/l0)'</t>
-    </r>
+    <t>U(L)</t>
   </si>
   <si>
-    <t>-tg(β)/l0^2</t>
+    <t>U(I)</t>
   </si>
   <si>
-    <t>-I*tg(α)</t>
+    <t>U(U)</t>
   </si>
   <si>
-    <r>
-      <t>(tg(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>α</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)/R0)' = (tg(α)/(U/I))'</t>
-    </r>
+    <t>U(T)</t>
   </si>
   <si>
-    <t>I*tg(α)/u^2</t>
+    <t>U(R8)</t>
+  </si>
+  <si>
+    <t>U(tg(α))</t>
+  </si>
+  <si>
+    <t>U(tg(β))</t>
+  </si>
+  <si>
+    <t>U(α)</t>
+  </si>
+  <si>
+    <t>U(γ)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -259,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -268,24 +232,14 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -417,6 +371,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>Arkusz1!$G$5:$G$14</c:f>
@@ -466,31 +434,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>113</c:v>
+                  <c:v>1.1299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>138</c:v>
+                  <c:v>1.38</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>160</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -784,6 +752,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>Arkusz1!$G$5:$G$14</c:f>
@@ -2501,10 +2483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEDC898-0FA1-4E4D-AAD0-2AE10EA03B5C}">
-  <dimension ref="B2:P52"/>
+  <dimension ref="A2:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P58" sqref="P58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2512,13 +2494,14 @@
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2526,7 +2509,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2554,8 +2537,20 @@
       <c r="K4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -2580,8 +2575,24 @@
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
+      <c r="N5" s="2">
+        <f>0.01/SQRT(3)</f>
+        <v>5.773502691896258E-3</v>
+      </c>
+      <c r="O5" s="2">
+        <f>0.5/SQRT(3)</f>
+        <v>0.28867513459481292</v>
+      </c>
+      <c r="P5" s="2">
+        <f>0.1/SQRT(3)</f>
+        <v>5.7735026918962581E-2</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>0.1/SQRT(3)</f>
+        <v>5.7735026918962581E-2</v>
+      </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>2</v>
       </c>
@@ -2589,7 +2600,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="E6" s="2">
         <v>0.1</v>
@@ -2604,13 +2615,13 @@
         <f t="shared" ref="H6:H14" si="0">C6/F6</f>
         <v>6.4516129032258069</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="7">
         <f>D6/G6</f>
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -2618,7 +2629,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2">
-        <v>18</v>
+        <v>0.18</v>
       </c>
       <c r="E7" s="2">
         <v>0.3</v>
@@ -2633,16 +2644,25 @@
         <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="7">
         <f t="shared" ref="J7:J14" si="1">D7/G7</f>
-        <v>2.4</v>
-      </c>
-      <c r="K7" s="9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K7" s="6">
         <f t="shared" ref="K7:K14" si="2">H7/G7</f>
         <v>0.83333333333333337</v>
       </c>
+      <c r="N7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -2650,7 +2670,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>31</v>
+        <v>0.31</v>
       </c>
       <c r="E8" s="2">
         <v>0.4</v>
@@ -2665,16 +2685,28 @@
         <f t="shared" si="0"/>
         <v>7.0175438596491233</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="7">
         <f t="shared" si="1"/>
-        <v>3.1</v>
-      </c>
-      <c r="K8" s="9">
+        <v>3.1E-2</v>
+      </c>
+      <c r="K8" s="6">
         <f t="shared" si="2"/>
         <v>0.70175438596491235</v>
       </c>
+      <c r="N8" s="2">
+        <f>SQRT(((1/F12)*P5)^2+(((-C12)/(F12^2))*Q5)^2)</f>
+        <v>0.53762363384229628</v>
+      </c>
+      <c r="O8" s="2">
+        <f>SQRT(((1/G12)*N8)^2+(((-H12)/(G12^2))*O5)^2)</f>
+        <v>1.8131946796637193E-2</v>
+      </c>
+      <c r="P8" s="2">
+        <f>SQRT(((1/G12)*N5)^2+(((-D12)/(G12^2))*O5)^2)</f>
+        <v>4.1037220884733249E-4</v>
+      </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -2682,7 +2714,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="2">
-        <v>56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E9" s="2">
         <v>0.6</v>
@@ -2697,16 +2729,16 @@
         <f t="shared" si="0"/>
         <v>7.3529411764705879</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="7">
         <f t="shared" si="1"/>
-        <v>3.7333333333333334</v>
-      </c>
-      <c r="K9" s="9">
+        <v>3.7333333333333336E-2</v>
+      </c>
+      <c r="K9" s="6">
         <f t="shared" si="2"/>
         <v>0.49019607843137253</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -2714,7 +2746,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="2">
-        <v>72</v>
+        <v>0.72</v>
       </c>
       <c r="E10" s="2">
         <v>0.8</v>
@@ -2729,16 +2761,22 @@
         <f t="shared" si="0"/>
         <v>7.7922077922077921</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="7">
         <f t="shared" si="1"/>
-        <v>3.6</v>
-      </c>
-      <c r="K10" s="9">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="K10" s="6">
         <f t="shared" si="2"/>
         <v>0.38961038961038963</v>
       </c>
+      <c r="N10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -2746,7 +2784,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="2">
-        <v>93</v>
+        <v>0.93</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -2758,19 +2796,27 @@
         <v>25</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="0"/>
+        <f>C11/F11</f>
         <v>8.1395348837209305</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="7">
         <f t="shared" si="1"/>
-        <v>3.72</v>
-      </c>
-      <c r="K11" s="9">
+        <v>3.7200000000000004E-2</v>
+      </c>
+      <c r="K11" s="6">
         <f t="shared" si="2"/>
         <v>0.32558139534883723</v>
       </c>
+      <c r="N11" s="11">
+        <f>SQRT(((1/C2)*P8)^2+(((-J15)/(C2^2))*N5)^2)</f>
+        <v>4.3656623491169851E-7</v>
+      </c>
+      <c r="O11" s="11">
+        <f>SQRT(((1/H5)*O8)^2+(((-K15)/(H5^2))*N8)^2)</f>
+        <v>8.3450415245530894E-3</v>
+      </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -2778,7 +2824,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="2">
-        <v>113</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="E12" s="2">
         <v>1.2</v>
@@ -2793,16 +2839,16 @@
         <f t="shared" si="0"/>
         <v>8.6021505376344081</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="7">
         <f t="shared" si="1"/>
-        <v>3.7666666666666666</v>
-      </c>
-      <c r="K12" s="9">
+        <v>3.7666666666666661E-2</v>
+      </c>
+      <c r="K12" s="6">
         <f t="shared" si="2"/>
         <v>0.28673835125448027</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -2810,7 +2856,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="2">
-        <v>138</v>
+        <v>1.38</v>
       </c>
       <c r="E13" s="2">
         <v>1.4</v>
@@ -2825,16 +2871,16 @@
         <f t="shared" si="0"/>
         <v>9.0909090909090917</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="7">
         <f t="shared" si="1"/>
-        <v>3.9428571428571431</v>
-      </c>
-      <c r="K13" s="9">
+        <v>3.9428571428571424E-2</v>
+      </c>
+      <c r="K13" s="6">
         <f t="shared" si="2"/>
         <v>0.25974025974025977</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -2842,7 +2888,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="2">
-        <v>160</v>
+        <v>1.6</v>
       </c>
       <c r="E14" s="2">
         <v>1.6</v>
@@ -2857,22 +2903,22 @@
         <f t="shared" si="0"/>
         <v>9.615384615384615</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="8">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K14" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="K14" s="6">
         <f t="shared" si="2"/>
         <v>0.24038461538461536</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="9">
         <f>AVERAGE(J6:J14)</f>
-        <v>3.3625396825396825</v>
+        <v>3.3625396825396822E-2</v>
       </c>
       <c r="K15" s="5">
         <f>AVERAGE(K7:K14)</f>
@@ -2883,85 +2929,173 @@
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="11">
         <f>J15/C2</f>
-        <v>3.5771698750422156E-3</v>
+        <v>3.5771698750422154E-5</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="11">
         <f>K15/H5</f>
         <v>7.9365123204034521E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="7">
-        <v>3.5771698750422156E-3</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="M51">
-        <f>-J15/C2^2</f>
-        <v>-3.8054998670661866E-6</v>
-      </c>
-      <c r="P51">
-        <f>SQRT((M51*(1/SQRT(3)))^2)</f>
-        <v>2.1971063726517482E-6</v>
-      </c>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="8">
-        <v>7.9365123204034521E-2</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I52" s="13"/>
-      <c r="J52" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K52" s="13"/>
-      <c r="M52">
-        <f>-F5*K15</f>
-        <v>-7.9365123204034507E-2</v>
-      </c>
-      <c r="N52">
-        <f>F5*K15/C5</f>
-        <v>7.9365123204034507E-2</v>
-      </c>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:I52"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
